--- a/blankimport.xlsx
+++ b/blankimport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Импорт" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -4966,8 +4966,8 @@
   </sheetPr>
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5015,78 +5015,38 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K7" s="5"/>
-      <c r="L7" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="13">
-        <v>2</v>
-      </c>
-      <c r="N8" s="13">
-        <v>16896.900000000001</v>
-      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="13">
-        <v>2</v>
-      </c>
-      <c r="N9" s="13">
-        <v>15154.3</v>
-      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L10" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" s="13">
-        <v>10880.96</v>
-      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" s="13" t="e">
-        <f>Импорт!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -5104,14 +5064,14 @@
       </c>
       <c r="C15">
         <f>COUNTA(L:L)-1</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15">
         <f>SUM(M:M)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -5152,7 +5112,7 @@
       </c>
       <c r="D21" s="7">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45952</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>

--- a/blankimport.xlsx
+++ b/blankimport.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Клиентский номер</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Город / Регион отправления</t>
+  </si>
+  <si>
+    <t>Следующая строка (импорт):</t>
+  </si>
+  <si>
+    <t>Следующая строка (расписка):</t>
+  </si>
+  <si>
+    <t>То что ниже - не трогать!</t>
   </si>
 </sst>
 </file>
@@ -4964,10 +4973,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:N21"/>
+  <dimension ref="B3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5112,10 +5121,25 @@
       </c>
       <c r="D21" s="7">
         <f ca="1">TODAY()</f>
-        <v>45952</v>
+        <v>45964</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
